--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18D8EC-E170-42DB-BD00-92B3755CE703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -38,6 +29,54 @@
     <t>Source:</t>
   </si>
   <si>
+    <t>National Renewable Energy Laboratory</t>
+  </si>
+  <si>
+    <t>Renewable Energy Futures Study: Volume 1</t>
+  </si>
+  <si>
+    <t>http://www.nrel.gov/docs/fy12osti/52409-1.pdf</t>
+  </si>
+  <si>
+    <t>Page 3-14, Figure 3-8</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Additional MW-miles</t>
+  </si>
+  <si>
+    <t>MW-miles</t>
+  </si>
+  <si>
+    <t>Annual cost (2010-2050)</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Cost per MW-mile</t>
+  </si>
+  <si>
+    <t>We assume that the currency figures in RE Futures are in real dollars</t>
+  </si>
+  <si>
+    <t>and the annual cost from 2010-2050 refers to a period of 40 years,</t>
+  </si>
+  <si>
+    <t>not 41 years (e.g. going from the end of 2010 to the end of 2050).</t>
+  </si>
+  <si>
+    <t>(value read from graph)</t>
+  </si>
+  <si>
     <t>Transmission Construction</t>
   </si>
   <si>
@@ -47,96 +86,25 @@
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
-    <t>circuit miles per million dollars</t>
-  </si>
-  <si>
-    <t>million $ per mile</t>
-  </si>
-  <si>
-    <t>https://www.agweb.com/land/farmland-value-guide/</t>
-  </si>
-  <si>
-    <t>https://www.ferc.gov/legal/staff-reports/2016/03-17-16-report.pdf</t>
-  </si>
-  <si>
-    <t>Federal Energy Regulatory Commission</t>
-  </si>
-  <si>
-    <t>Transmission Metrics: Initial Results</t>
-  </si>
-  <si>
-    <t>Figure 9</t>
-  </si>
-  <si>
-    <t>The dollar value is not pegged to any particular year.  We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
-  </si>
-  <si>
-    <t>Data cover years 2008-2014.  Lacking any information, we assume nominal dollars and a constant distribution which would imply the result are in 2011 dollars.</t>
-  </si>
-  <si>
-    <t>We adjust 2011 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>Least expensive in sample (number in black in Figure 9)</t>
-  </si>
-  <si>
-    <t>WECC 7 year average from Figure 9 (number in red)</t>
-  </si>
-  <si>
-    <t>Imputed most expensive in sample if increment away from average is the same as least expensive</t>
-  </si>
-  <si>
-    <t>Increment between average and least expensive</t>
-  </si>
-  <si>
-    <t>Assume California average cost as the midpoint between this imputed most expensive and the average value for WECC</t>
-  </si>
-  <si>
-    <t>Inflate from 2011 to 2012</t>
-  </si>
-  <si>
-    <t>Method:</t>
-  </si>
-  <si>
-    <t>The FERC study provides a recent estimate that is in exacty the units needed to align with our data on transmission capacity which is in circuit miles.</t>
-  </si>
-  <si>
-    <t>However, these are WECC data and we need to capture fact that California is a higher cost state, not least in terms of land costs (an element transmission construction cost).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The second figure below illustrates the divergence in land cost in California compared to the rest of the WECC. </t>
-  </si>
-  <si>
-    <t>The approach to adjusting the WECC value is not entirely satisfying, given the ad hoc assumptions, and so future work would do well to refine this data input.</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity Distance (2012$/circuit mile)</t>
-  </si>
-  <si>
-    <t>The California model uses the WECC average cost and then scales it up a bit to account for California's higher land costs.</t>
-  </si>
-  <si>
-    <t>All that methodology is retained here. However, Oregon is fairly comparable to Washington in land costs so we stick</t>
-  </si>
-  <si>
-    <t>to the average value provided by FERC rather than adjusting it.</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS:</t>
-  </si>
-  <si>
-    <t>Oregon EPS in yellow</t>
+    <t>We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
+  </si>
+  <si>
+    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>2010 $</t>
+  </si>
+  <si>
+    <t>2012 $</t>
+  </si>
+  <si>
+    <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,6 +125,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,15 +160,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,7 +170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,58 +226,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma" xfId="8" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+  <cellStyles count="8">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -315,99 +290,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257213</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123853</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8129588"/>
-          <a:ext cx="5238788" cy="3757640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708012</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57178</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="4257675"/>
-          <a:ext cx="5670537" cy="3219478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,23 +368,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -538,23 +403,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,269 +578,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f>1.02229493329303*1.068</f>
-        <v>1.091810988756956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0.8</v>
-      </c>
-      <c r="C2">
-        <f>1/B2</f>
-        <v>1.25</v>
-      </c>
-      <c r="F2" s="11">
-        <f>1/B2</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f>1/B3</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <f>122*10^6</f>
+        <v>122000000</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <f>(C2+C5)/2</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <f>C6*About!A13</f>
-        <v>1.7741928567300536</v>
-      </c>
-      <c r="F7" s="11">
-        <f>F2*About!A13</f>
-        <v>1.364763735946195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <f>6.5*10^9</f>
+        <v>6500000000</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f>B7*(2050-2010)</f>
+        <v>260000000000</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="14">
+        <f>B8/B6</f>
+        <v>2131.1475409836066</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="10">
+        <f>B9*About!$A$12</f>
+        <v>2248.3606557377047</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10">
-        <f>Data!F7*1000000</f>
-        <v>1364763.735946195</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="6">
+        <f>Data!B10</f>
+        <v>2248.3606557377047</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\elec\TCCpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18D8EC-E170-42DB-BD00-92B3755CE703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -29,54 +38,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>National Renewable Energy Laboratory</t>
-  </si>
-  <si>
-    <t>Renewable Energy Futures Study: Volume 1</t>
-  </si>
-  <si>
-    <t>http://www.nrel.gov/docs/fy12osti/52409-1.pdf</t>
-  </si>
-  <si>
-    <t>Page 3-14, Figure 3-8</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Additional MW-miles</t>
-  </si>
-  <si>
-    <t>MW-miles</t>
-  </si>
-  <si>
-    <t>Annual cost (2010-2050)</t>
-  </si>
-  <si>
-    <t>Total cost</t>
-  </si>
-  <si>
-    <t>Cost per MW-mile</t>
-  </si>
-  <si>
-    <t>We assume that the currency figures in RE Futures are in real dollars</t>
-  </si>
-  <si>
-    <t>and the annual cost from 2010-2050 refers to a period of 40 years,</t>
-  </si>
-  <si>
-    <t>not 41 years (e.g. going from the end of 2010 to the end of 2050).</t>
-  </si>
-  <si>
-    <t>(value read from graph)</t>
-  </si>
-  <si>
     <t>Transmission Construction</t>
   </si>
   <si>
@@ -86,25 +47,96 @@
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
-    <t>We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
-  </si>
-  <si>
-    <t>We adjust 2010 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>2010 $</t>
-  </si>
-  <si>
-    <t>2012 $</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
+    <t>circuit miles per million dollars</t>
+  </si>
+  <si>
+    <t>million $ per mile</t>
+  </si>
+  <si>
+    <t>https://www.agweb.com/land/farmland-value-guide/</t>
+  </si>
+  <si>
+    <t>https://www.ferc.gov/legal/staff-reports/2016/03-17-16-report.pdf</t>
+  </si>
+  <si>
+    <t>Federal Energy Regulatory Commission</t>
+  </si>
+  <si>
+    <t>Transmission Metrics: Initial Results</t>
+  </si>
+  <si>
+    <t>Figure 9</t>
+  </si>
+  <si>
+    <t>The dollar value is not pegged to any particular year.  We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
+  </si>
+  <si>
+    <t>Data cover years 2008-2014.  Lacking any information, we assume nominal dollars and a constant distribution which would imply the result are in 2011 dollars.</t>
+  </si>
+  <si>
+    <t>We adjust 2011 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>Least expensive in sample (number in black in Figure 9)</t>
+  </si>
+  <si>
+    <t>WECC 7 year average from Figure 9 (number in red)</t>
+  </si>
+  <si>
+    <t>Imputed most expensive in sample if increment away from average is the same as least expensive</t>
+  </si>
+  <si>
+    <t>Increment between average and least expensive</t>
+  </si>
+  <si>
+    <t>Assume California average cost as the midpoint between this imputed most expensive and the average value for WECC</t>
+  </si>
+  <si>
+    <t>Inflate from 2011 to 2012</t>
+  </si>
+  <si>
+    <t>Method:</t>
+  </si>
+  <si>
+    <t>The FERC study provides a recent estimate that is in exacty the units needed to align with our data on transmission capacity which is in circuit miles.</t>
+  </si>
+  <si>
+    <t>However, these are WECC data and we need to capture fact that California is a higher cost state, not least in terms of land costs (an element transmission construction cost).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The second figure below illustrates the divergence in land cost in California compared to the rest of the WECC. </t>
+  </si>
+  <si>
+    <t>The approach to adjusting the WECC value is not entirely satisfying, given the ad hoc assumptions, and so future work would do well to refine this data input.</t>
+  </si>
+  <si>
+    <t>Cost per Unit Capacity Distance (2012$/circuit mile)</t>
+  </si>
+  <si>
+    <t>The California model uses the WECC average cost and then scales it up a bit to account for California's higher land costs.</t>
+  </si>
+  <si>
+    <t>All that methodology is retained here. However, Oregon is fairly comparable to Washington in land costs so we stick</t>
+  </si>
+  <si>
+    <t>to the average value provided by FERC rather than adjusting it.</t>
+  </si>
+  <si>
+    <t>Additional Notes for Oregon EPS:</t>
+  </si>
+  <si>
+    <t>Oregon EPS in yellow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,14 +157,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,8 +184,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,13 +201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,58 +251,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+  <cellStyles count="9">
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma" xfId="8" builtinId="3"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,6 +315,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257213</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8129588"/>
+          <a:ext cx="5238788" cy="3757640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>708012</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="4257675"/>
+          <a:ext cx="5670537" cy="3219478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,6 +486,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +538,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,216 +730,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>1.02229493329303*1.068</f>
+        <v>1.091810988756956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="12">
-        <v>1.0549999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="12" t="s">
-        <v>20</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <f>1/B2</f>
+        <v>1.25</v>
+      </c>
+      <c r="F2" s="11">
+        <f>1/B2</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>1/B3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <f>(C2+C5)/2</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f>C6*About!A13</f>
+        <v>1.7741928567300536</v>
+      </c>
+      <c r="F7" s="11">
+        <f>F2*About!A13</f>
+        <v>1.364763735946195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
-        <f>122*10^6</f>
-        <v>122000000</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <f>6.5*10^9</f>
-        <v>6500000000</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <f>B7*(2050-2010)</f>
-        <v>260000000000</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="14">
-        <f>B8/B6</f>
-        <v>2131.1475409836066</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10">
-        <f>B9*About!$A$12</f>
-        <v>2248.3606557377047</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6">
-        <f>Data!B10</f>
-        <v>2248.3606557377047</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Data!F7*1000000</f>
+        <v>1364763.735946195</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/elec/tccpucd/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E893A658-3A6F-BD43-AB66-ECE5867DE9AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="17220" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,7 +258,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,16 +280,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,6 +381,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +433,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,22 +625,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="15">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,88 +651,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -693,7 +743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -708,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -720,7 +770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -732,7 +782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -744,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -762,7 +812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -770,18 +820,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/elec/tccpucd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/tccpucd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E893A658-3A6F-BD43-AB66-ECE5867DE9AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE300AF-81C3-9242-B8CC-F5A8E14C1CBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="17220" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jonah\Documents\EPS Model\.eps-oregon-1.4.3.2 - WIP\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\TCCpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18D8EC-E170-42DB-BD00-92B3755CE703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FB9EC-098D-47C2-82FF-923B9AA82DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -47,97 +50,32 @@
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
   </si>
   <si>
-    <t>circuit miles per million dollars</t>
-  </si>
-  <si>
-    <t>million $ per mile</t>
-  </si>
-  <si>
-    <t>https://www.agweb.com/land/farmland-value-guide/</t>
-  </si>
-  <si>
-    <t>https://www.ferc.gov/legal/staff-reports/2016/03-17-16-report.pdf</t>
-  </si>
-  <si>
-    <t>Federal Energy Regulatory Commission</t>
-  </si>
-  <si>
-    <t>Transmission Metrics: Initial Results</t>
-  </si>
-  <si>
-    <t>Figure 9</t>
-  </si>
-  <si>
-    <t>The dollar value is not pegged to any particular year.  We assume NREL's 2010-2050 figures are in real 2010 dollars.</t>
-  </si>
-  <si>
-    <t>Data cover years 2008-2014.  Lacking any information, we assume nominal dollars and a constant distribution which would imply the result are in 2011 dollars.</t>
-  </si>
-  <si>
-    <t>We adjust 2011 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>Least expensive in sample (number in black in Figure 9)</t>
-  </si>
-  <si>
-    <t>WECC 7 year average from Figure 9 (number in red)</t>
-  </si>
-  <si>
-    <t>Imputed most expensive in sample if increment away from average is the same as least expensive</t>
-  </si>
-  <si>
-    <t>Increment between average and least expensive</t>
-  </si>
-  <si>
-    <t>Assume California average cost as the midpoint between this imputed most expensive and the average value for WECC</t>
-  </si>
-  <si>
-    <t>Inflate from 2011 to 2012</t>
-  </si>
-  <si>
-    <t>Method:</t>
-  </si>
-  <si>
-    <t>The FERC study provides a recent estimate that is in exacty the units needed to align with our data on transmission capacity which is in circuit miles.</t>
-  </si>
-  <si>
-    <t>However, these are WECC data and we need to capture fact that California is a higher cost state, not least in terms of land costs (an element transmission construction cost).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The second figure below illustrates the divergence in land cost in California compared to the rest of the WECC. </t>
-  </si>
-  <si>
-    <t>The approach to adjusting the WECC value is not entirely satisfying, given the ad hoc assumptions, and so future work would do well to refine this data input.</t>
-  </si>
-  <si>
-    <t>Cost per Unit Capacity Distance (2012$/circuit mile)</t>
-  </si>
-  <si>
-    <t>The California model uses the WECC average cost and then scales it up a bit to account for California's higher land costs.</t>
-  </si>
-  <si>
-    <t>All that methodology is retained here. However, Oregon is fairly comparable to Washington in land costs so we stick</t>
-  </si>
-  <si>
-    <t>to the average value provided by FERC rather than adjusting it.</t>
-  </si>
-  <si>
-    <t>Additional Notes for Oregon EPS:</t>
-  </si>
-  <si>
-    <t>Oregon EPS in yellow</t>
+    <t>Cost per Unit Capacity Distance (2012$/(circuit mile))</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>http://sites.utexas.edu/energyinstitute/files/2016/11/UTAustin_FCe_TransmissionCosts_2016.pdf</t>
+  </si>
+  <si>
+    <t>The University of Texas at Austin Energy Institute</t>
+  </si>
+  <si>
+    <t>Estimation of Transmission Costs for New Generation</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>We adjust 2016 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,26 +122,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -251,7 +176,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
@@ -270,39 +195,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma" xfId="8" builtinId="3"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,21 +236,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257213</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123853</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161104</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD2E4CF-B955-4B59-BEE8-2B8AF2EAB153}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -353,52 +266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8129588"/>
-          <a:ext cx="5238788" cy="3757640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708012</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>57178</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="4257675"/>
-          <a:ext cx="5670537" cy="3219478"/>
+          <a:off x="0" y="5610225"/>
+          <a:ext cx="6571429" cy="1847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,231 +600,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f>1.02229493329303*1.068</f>
-        <v>1.091810988756956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>0.95661376543184151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A13:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>0.8</v>
-      </c>
-      <c r="C2">
-        <f>1/B2</f>
-        <v>1.25</v>
-      </c>
-      <c r="F2" s="11">
-        <f>1/B2</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f>1/B3</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <f>(C2+C5)/2</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <f>C6*About!A13</f>
-        <v>1.7741928567300536</v>
-      </c>
-      <c r="F7" s="11">
-        <f>F2*About!A13</f>
-        <v>1.364763735946195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
+      <c r="B13">
+        <f>AVERAGE(1.114,0.823,0.847)</f>
+        <v>0.92799999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -975,24 +710,24 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
-        <f>Data!F7*1000000</f>
-        <v>1364763.735946195</v>
+      <c r="B2" s="6">
+        <f>Data!B13*1000000*About!A11</f>
+        <v>887737.5743207488</v>
       </c>
     </row>
   </sheetData>
